--- a/Good Recordings/8.3.Labels.xlsx
+++ b/Good Recordings/8.3.Labels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Continuous_Monitoring_project1\Good Recordings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451A7ACF-697E-44F0-BFBD-58081A56AFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCE045A-11AE-4DEF-A504-B97585010538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8740D7F1-EC5B-4628-B060-2223FA259641}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -483,7 +483,7 @@
         <v>1311.76</v>
       </c>
       <c r="B4" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>
